--- a/vorlage_bestellliste_shop1.xlsx
+++ b/vorlage_bestellliste_shop1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Downloads\Python_WearTogether\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B349D05C-DC3C-4540-938A-17FE42120994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF4B78D-EDF5-48C5-ACED-2D253D0A267B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13935" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -189,29 +189,6 @@
   <dxfs count="15">
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -234,6 +211,9 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -503,6 +483,26 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
@@ -606,7 +606,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6D98AAF8-6A34-4A08-B40E-DA3C2466C0B8}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6D98AAF8-6A34-4A08-B40E-DA3C2466C0B8}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
@@ -618,7 +618,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" showAll="0" nonAutoSortDefault="1">
       <items count="2">
         <item x="0"/>
         <item t="default"/>
@@ -688,7 +688,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8EC552F1-13DA-4F6D-8D22-0573E5905EAD}" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8EC552F1-13DA-4F6D-8D22-0573E5905EAD}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField axis="axisRow" showAll="0">
@@ -700,7 +700,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" showAll="0" nonAutoSortDefault="1">
       <items count="2">
         <item x="0"/>
         <item t="default"/>
@@ -778,22 +778,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8CF09562-71E3-40C5-8BB5-0E3D3AC058C8}" name="Bestellungen" displayName="Bestellungen" ref="A1:K3" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8CF09562-71E3-40C5-8BB5-0E3D3AC058C8}" name="Bestellungen" displayName="Bestellungen" ref="A1:K3" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:K3" xr:uid="{CC7DF1F6-14CE-49F3-A5D2-5673806C4EFE}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{64769FC7-625D-49A2-86CA-1263719C4285}" name="Produktname" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{3FC9DA4D-064D-4961-8060-199C8C37D01C}" name="Karton" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{7D277098-2C89-4366-A5AA-A16D9890C42B}" name="Vorname" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{C0D06873-933D-495E-AF31-076F1A25C0CC}" name="Nachnahme (Rechnungsadresse)" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{D75A169F-38A8-4011-A588-FE629F86A646}" name="Größe" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{91763F6F-7E65-4976-A01B-F283428F3043}" name="Farbe" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{86C661FD-C7FE-46E2-A292-5D1D97D3C297}" name="Klasse" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{1191F861-5D4F-4B11-B366-C125F8D23EB9}" name="Individualisierung" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{D05547F4-1C61-4701-AD4F-A3E5939DBAC9}" name="Individualisierungstext(zählt nur wenn Individualisierung Ja)" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{6A79C222-B0AC-44B7-BC8A-8D30CDB74A71}" name="Checkbox" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{64769FC7-625D-49A2-86CA-1263719C4285}" name="Produktname" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{3FC9DA4D-064D-4961-8060-199C8C37D01C}" name="Karton" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{7D277098-2C89-4366-A5AA-A16D9890C42B}" name="Vorname" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{C0D06873-933D-495E-AF31-076F1A25C0CC}" name="Nachnahme (Rechnungsadresse)" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{D75A169F-38A8-4011-A588-FE629F86A646}" name="Größe" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{91763F6F-7E65-4976-A01B-F283428F3043}" name="Farbe" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{86C661FD-C7FE-46E2-A292-5D1D97D3C297}" name="Klasse" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{1191F861-5D4F-4B11-B366-C125F8D23EB9}" name="Individualisierung" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{D05547F4-1C61-4701-AD4F-A3E5939DBAC9}" name="Individualisierungstext(zählt nur wenn Individualisierung Ja)" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{6A79C222-B0AC-44B7-BC8A-8D30CDB74A71}" name="Checkbox" dataDxfId="1">
       <calculatedColumnFormula>IF(AND(H2="Ja",I2=""),D2,IF(H2="Nein","",IFERROR(RIGHT(I2,LEN(I2)-50),"")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{400C9EBF-8FAB-48A5-8211-5F851FDEB64C}" name="Anzahl" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{400C9EBF-8FAB-48A5-8211-5F851FDEB64C}" name="Anzahl" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1088,16 +1088,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2910B5E9-CB3A-454C-9013-CCEAF29ACCBF}">
   <dimension ref="A3:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.89453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1015625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="36" width="5.578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1160,15 +1158,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6BC62B-A779-404A-84F9-0A0F4C773D3C}">
   <dimension ref="A3:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.89453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="51" width="5.578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3231,10 +3228,10 @@
     <sortCondition ref="E2:E320" customList="Größe: XS,Größe: S,Größe: M,Größe: L,Größe: XL,Größe: XXL,Größe: XXXL"/>
   </sortState>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Ja">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="Ja">
       <formula>NOT(ISERROR(SEARCH("Ja",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text=" Individualisierung (+5€): Ja">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text=" Individualisierung (+5€): Ja">
       <formula>NOT(ISERROR(SEARCH(" Individualisierung (+5€): Ja",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
